--- a/2017 PRDF Codebook.xlsx
+++ b/2017 PRDF Codebook.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eloramajumdar/Desktop/GA_Course/final_project/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{57D73F01-AF05-D042-AA7D-999DACDDF1EF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="72" windowWidth="17232" windowHeight="11760"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="23020" windowHeight="13560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Core Survey Items" sheetId="2" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="608">
   <si>
     <t>AF</t>
   </si>
@@ -469,28 +475,13 @@
     <t>Are you considering leaving your organization within the next year, and if so, why?</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>Non-Supervisor/Team Leader</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
-    <t xml:space="preserve">B </t>
-  </si>
-  <si>
     <t>Female</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
   <si>
     <t>Supervisor/Manager/Senior Leader</t>
@@ -1861,7 +1852,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2056,6 +2047,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2103,7 +2097,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2136,9 +2130,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2171,6 +2182,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2346,29 +2374,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView topLeftCell="A62" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="54.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="17.109375" style="17" customWidth="1"/>
-    <col min="11" max="14" width="17.109375" style="9" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="10"/>
+    <col min="1" max="1" width="6.5" style="9" customWidth="1"/>
+    <col min="2" max="2" width="54.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="17.1640625" style="17" customWidth="1"/>
+    <col min="11" max="14" width="17.1640625" style="9" customWidth="1"/>
+    <col min="15" max="16384" width="9.1640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="27" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
@@ -2391,7 +2419,7 @@
       <c r="Z1" s="9"/>
       <c r="AA1" s="9"/>
     </row>
-    <row r="2" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="15" t="s">
         <v>50</v>
@@ -2430,7 +2458,7 @@
       <c r="Z2" s="9"/>
       <c r="AA2" s="9"/>
     </row>
-    <row r="3" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2469,7 +2497,7 @@
       <c r="Z3" s="9"/>
       <c r="AA3" s="9"/>
     </row>
-    <row r="4" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -2508,7 +2536,7 @@
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
     </row>
-    <row r="5" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -2547,7 +2575,7 @@
       <c r="Z5" s="9"/>
       <c r="AA5" s="9"/>
     </row>
-    <row r="6" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -2586,7 +2614,7 @@
       <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
     </row>
-    <row r="7" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -2625,7 +2653,7 @@
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
     </row>
-    <row r="8" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -2664,7 +2692,7 @@
       <c r="Z8" s="9"/>
       <c r="AA8" s="9"/>
     </row>
-    <row r="9" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -2703,7 +2731,7 @@
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
     </row>
-    <row r="10" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -2742,7 +2770,7 @@
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
     </row>
-    <row r="11" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -2783,7 +2811,7 @@
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
     </row>
-    <row r="12" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -2824,7 +2852,7 @@
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
     </row>
-    <row r="13" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -2865,7 +2893,7 @@
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
     </row>
-    <row r="14" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -2906,7 +2934,7 @@
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
     </row>
-    <row r="15" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -2947,7 +2975,7 @@
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
     </row>
-    <row r="16" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="45" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -2988,7 +3016,7 @@
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
     </row>
-    <row r="17" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -3029,7 +3057,7 @@
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
     </row>
-    <row r="18" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -3070,7 +3098,7 @@
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
     </row>
-    <row r="19" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -3111,7 +3139,7 @@
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
     </row>
-    <row r="20" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -3152,7 +3180,7 @@
       <c r="Z20" s="9"/>
       <c r="AA20" s="9"/>
     </row>
-    <row r="21" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -3193,7 +3221,7 @@
       <c r="Z21" s="9"/>
       <c r="AA21" s="9"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="8"/>
@@ -3218,13 +3246,13 @@
       <c r="Z22" s="9"/>
       <c r="AA22" s="9"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="27" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
@@ -3247,7 +3275,7 @@
       <c r="Z23" s="9"/>
       <c r="AA23" s="9"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="18"/>
       <c r="B24" s="15" t="s">
         <v>77</v>
@@ -3286,7 +3314,7 @@
       <c r="Z24" s="9"/>
       <c r="AA24" s="9"/>
     </row>
-    <row r="25" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>20</v>
       </c>
@@ -3325,7 +3353,7 @@
       <c r="Z25" s="9"/>
       <c r="AA25" s="9"/>
     </row>
-    <row r="26" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>21</v>
       </c>
@@ -3366,7 +3394,7 @@
       <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>
     </row>
-    <row r="27" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>22</v>
       </c>
@@ -3407,7 +3435,7 @@
       <c r="Z27" s="9"/>
       <c r="AA27" s="9"/>
     </row>
-    <row r="28" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>23</v>
       </c>
@@ -3448,7 +3476,7 @@
       <c r="Z28" s="9"/>
       <c r="AA28" s="9"/>
     </row>
-    <row r="29" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>24</v>
       </c>
@@ -3489,7 +3517,7 @@
       <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
     </row>
-    <row r="30" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>25</v>
       </c>
@@ -3530,7 +3558,7 @@
       <c r="Z30" s="9"/>
       <c r="AA30" s="9"/>
     </row>
-    <row r="31" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>26</v>
       </c>
@@ -3571,7 +3599,7 @@
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
     </row>
-    <row r="32" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>27</v>
       </c>
@@ -3612,7 +3640,7 @@
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
     </row>
-    <row r="33" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>28</v>
       </c>
@@ -3651,7 +3679,7 @@
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="8"/>
@@ -3676,13 +3704,13 @@
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="26" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B35" s="26"/>
       <c r="C35" s="27" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
@@ -3705,7 +3733,7 @@
       <c r="Z35" s="9"/>
       <c r="AA35" s="9"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
       <c r="B36" s="15" t="s">
         <v>92</v>
@@ -3744,7 +3772,7 @@
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
     </row>
-    <row r="37" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>29</v>
       </c>
@@ -3785,7 +3813,7 @@
       <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
     </row>
-    <row r="38" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>30</v>
       </c>
@@ -3826,7 +3854,7 @@
       <c r="Z38" s="9"/>
       <c r="AA38" s="9"/>
     </row>
-    <row r="39" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>31</v>
       </c>
@@ -3867,7 +3895,7 @@
       <c r="Z39" s="9"/>
       <c r="AA39" s="9"/>
     </row>
-    <row r="40" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>32</v>
       </c>
@@ -3908,7 +3936,7 @@
       <c r="Z40" s="9"/>
       <c r="AA40" s="9"/>
     </row>
-    <row r="41" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>33</v>
       </c>
@@ -3949,7 +3977,7 @@
       <c r="Z41" s="9"/>
       <c r="AA41" s="9"/>
     </row>
-    <row r="42" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" ht="45" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>34</v>
       </c>
@@ -3990,7 +4018,7 @@
       <c r="Z42" s="9"/>
       <c r="AA42" s="9"/>
     </row>
-    <row r="43" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>35</v>
       </c>
@@ -4031,7 +4059,7 @@
       <c r="Z43" s="9"/>
       <c r="AA43" s="9"/>
     </row>
-    <row r="44" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>36</v>
       </c>
@@ -4072,7 +4100,7 @@
       <c r="Z44" s="9"/>
       <c r="AA44" s="9"/>
     </row>
-    <row r="45" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>37</v>
       </c>
@@ -4113,7 +4141,7 @@
       <c r="Z45" s="9"/>
       <c r="AA45" s="9"/>
     </row>
-    <row r="46" spans="1:27" ht="72" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" ht="60" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>38</v>
       </c>
@@ -4154,7 +4182,7 @@
       <c r="Z46" s="9"/>
       <c r="AA46" s="9"/>
     </row>
-    <row r="47" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>39</v>
       </c>
@@ -4195,7 +4223,7 @@
       <c r="Z47" s="9"/>
       <c r="AA47" s="9"/>
     </row>
-    <row r="48" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>40</v>
       </c>
@@ -4234,7 +4262,7 @@
       <c r="Z48" s="9"/>
       <c r="AA48" s="9"/>
     </row>
-    <row r="49" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>41</v>
       </c>
@@ -4275,7 +4303,7 @@
       <c r="Z49" s="9"/>
       <c r="AA49" s="9"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="5"/>
       <c r="C50" s="8"/>
@@ -4300,13 +4328,13 @@
       <c r="Z50" s="9"/>
       <c r="AA50" s="9"/>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" s="26" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B51" s="26"/>
       <c r="C51" s="27" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
@@ -4329,7 +4357,7 @@
       <c r="Z51" s="9"/>
       <c r="AA51" s="9"/>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52" s="18"/>
       <c r="B52" s="15" t="s">
         <v>50</v>
@@ -4368,7 +4396,7 @@
       <c r="Z52" s="9"/>
       <c r="AA52" s="9"/>
     </row>
-    <row r="53" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>42</v>
       </c>
@@ -4409,7 +4437,7 @@
       <c r="Z53" s="9"/>
       <c r="AA53" s="9"/>
     </row>
-    <row r="54" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>43</v>
       </c>
@@ -4450,7 +4478,7 @@
       <c r="Z54" s="9"/>
       <c r="AA54" s="9"/>
     </row>
-    <row r="55" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>44</v>
       </c>
@@ -4491,7 +4519,7 @@
       <c r="Z55" s="9"/>
       <c r="AA55" s="9"/>
     </row>
-    <row r="56" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>45</v>
       </c>
@@ -4532,7 +4560,7 @@
       <c r="Z56" s="9"/>
       <c r="AA56" s="9"/>
     </row>
-    <row r="57" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>46</v>
       </c>
@@ -4573,7 +4601,7 @@
       <c r="Z57" s="9"/>
       <c r="AA57" s="9"/>
     </row>
-    <row r="58" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>47</v>
       </c>
@@ -4614,7 +4642,7 @@
       <c r="Z58" s="9"/>
       <c r="AA58" s="9"/>
     </row>
-    <row r="59" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>48</v>
       </c>
@@ -4653,7 +4681,7 @@
       <c r="Z59" s="9"/>
       <c r="AA59" s="9"/>
     </row>
-    <row r="60" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>49</v>
       </c>
@@ -4692,7 +4720,7 @@
       <c r="Z60" s="9"/>
       <c r="AA60" s="9"/>
     </row>
-    <row r="61" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>50</v>
       </c>
@@ -4731,7 +4759,7 @@
       <c r="Z61" s="9"/>
       <c r="AA61" s="9"/>
     </row>
-    <row r="62" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>51</v>
       </c>
@@ -4770,7 +4798,7 @@
       <c r="Z62" s="9"/>
       <c r="AA62" s="9"/>
     </row>
-    <row r="63" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>52</v>
       </c>
@@ -4809,7 +4837,7 @@
       <c r="Z63" s="9"/>
       <c r="AA63" s="9"/>
     </row>
-    <row r="64" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>53</v>
       </c>
@@ -4850,7 +4878,7 @@
       <c r="Z64" s="9"/>
       <c r="AA64" s="9"/>
     </row>
-    <row r="65" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>54</v>
       </c>
@@ -4891,7 +4919,7 @@
       <c r="Z65" s="9"/>
       <c r="AA65" s="9"/>
     </row>
-    <row r="66" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>55</v>
       </c>
@@ -4932,7 +4960,7 @@
       <c r="Z66" s="9"/>
       <c r="AA66" s="9"/>
     </row>
-    <row r="67" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>56</v>
       </c>
@@ -4973,7 +5001,7 @@
       <c r="Z67" s="9"/>
       <c r="AA67" s="9"/>
     </row>
-    <row r="68" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>57</v>
       </c>
@@ -5014,7 +5042,7 @@
       <c r="Z68" s="9"/>
       <c r="AA68" s="9"/>
     </row>
-    <row r="69" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>58</v>
       </c>
@@ -5055,7 +5083,7 @@
       <c r="Z69" s="9"/>
       <c r="AA69" s="9"/>
     </row>
-    <row r="70" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>59</v>
       </c>
@@ -5096,7 +5124,7 @@
       <c r="Z70" s="9"/>
       <c r="AA70" s="9"/>
     </row>
-    <row r="71" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>60</v>
       </c>
@@ -5135,7 +5163,7 @@
       <c r="Z71" s="9"/>
       <c r="AA71" s="9"/>
     </row>
-    <row r="72" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>61</v>
       </c>
@@ -5176,7 +5204,7 @@
       <c r="Z72" s="9"/>
       <c r="AA72" s="9"/>
     </row>
-    <row r="73" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>62</v>
       </c>
@@ -5217,7 +5245,7 @@
       <c r="Z73" s="9"/>
       <c r="AA73" s="9"/>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
       <c r="C74" s="8"/>
@@ -5242,13 +5270,13 @@
       <c r="Z74" s="9"/>
       <c r="AA74" s="9"/>
     </row>
-    <row r="75" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="26" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B75" s="26"/>
       <c r="C75" s="27" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D75" s="27"/>
       <c r="E75" s="27"/>
@@ -5271,7 +5299,7 @@
       <c r="Z75" s="9"/>
       <c r="AA75" s="9"/>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76" s="18"/>
       <c r="B76" s="13" t="s">
         <v>127</v>
@@ -5308,7 +5336,7 @@
       <c r="Z76" s="9"/>
       <c r="AA76" s="9"/>
     </row>
-    <row r="77" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>63</v>
       </c>
@@ -5347,7 +5375,7 @@
       <c r="Z77" s="9"/>
       <c r="AA77" s="9"/>
     </row>
-    <row r="78" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>64</v>
       </c>
@@ -5386,7 +5414,7 @@
       <c r="Z78" s="9"/>
       <c r="AA78" s="9"/>
     </row>
-    <row r="79" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>65</v>
       </c>
@@ -5425,7 +5453,7 @@
       <c r="Z79" s="9"/>
       <c r="AA79" s="9"/>
     </row>
-    <row r="80" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>66</v>
       </c>
@@ -5464,7 +5492,7 @@
       <c r="Z80" s="9"/>
       <c r="AA80" s="9"/>
     </row>
-    <row r="81" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>67</v>
       </c>
@@ -5503,7 +5531,7 @@
       <c r="Z81" s="9"/>
       <c r="AA81" s="9"/>
     </row>
-    <row r="82" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>68</v>
       </c>
@@ -5542,7 +5570,7 @@
       <c r="Z82" s="9"/>
       <c r="AA82" s="9"/>
     </row>
-    <row r="83" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>69</v>
       </c>
@@ -5581,7 +5609,7 @@
       <c r="Z83" s="9"/>
       <c r="AA83" s="9"/>
     </row>
-    <row r="84" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>70</v>
       </c>
@@ -5620,7 +5648,7 @@
       <c r="Z84" s="9"/>
       <c r="AA84" s="9"/>
     </row>
-    <row r="85" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>71</v>
       </c>
@@ -5659,7 +5687,7 @@
       <c r="Z85" s="9"/>
       <c r="AA85" s="9"/>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
       <c r="C86" s="8"/>
@@ -5708,35 +5736,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="24" customWidth="1"/>
     <col min="2" max="2" width="44.33203125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="52.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="2"/>
+    <col min="3" max="3" width="5.83203125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="52.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D1" s="28"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
         <v>144</v>
       </c>
@@ -5744,86 +5772,86 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C3" s="22" t="s">
-        <v>150</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C3" s="22">
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C4" s="22" t="s">
-        <v>154</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" s="22">
+        <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="C6" s="22">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="22">
+        <v>2</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C8" s="22">
+        <v>3</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="C10" s="22">
+        <v>1</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>612</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="D6" s="2" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="22">
+        <v>2</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" s="22">
+        <v>3</v>
+      </c>
+      <c r="D12" s="25" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C7" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C8" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D9" s="25"/>
-    </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>611</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C11" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C12" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
         <v>147</v>
       </c>
@@ -5831,47 +5859,47 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C15" s="22" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" s="22">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C16" s="22" t="s">
-        <v>152</v>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16" s="22">
+        <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C19" s="22" t="s">
-        <v>150</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C19" s="22">
+        <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C20" s="22" t="s">
-        <v>152</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C20" s="22">
+        <v>0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
         <v>148</v>
       </c>
@@ -5879,36 +5907,36 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C23" s="22" t="s">
-        <v>150</v>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C23" s="22">
+        <v>0</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C24" s="22" t="s">
-        <v>152</v>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C24" s="22">
+        <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C25" s="22" t="s">
-        <v>156</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C25" s="22">
+        <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C26" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C26" s="22">
+        <v>2</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -5920,35 +5948,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B242"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="76" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B1" s="29"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5956,7 +5984,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -5964,31 +5992,31 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -5996,31 +6024,31 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -6028,7 +6056,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -6036,7 +6064,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -6044,15 +6072,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -6060,15 +6088,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -6076,7 +6104,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -6084,23 +6112,23 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -6108,7 +6136,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
@@ -6116,7 +6144,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
@@ -6124,7 +6152,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -6132,15 +6160,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -6148,23 +6176,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
@@ -6172,15 +6200,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
@@ -6188,15 +6216,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>20</v>
       </c>
@@ -6204,23 +6232,23 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
@@ -6228,15 +6256,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>22</v>
       </c>
@@ -6244,7 +6272,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>23</v>
       </c>
@@ -6252,7 +6280,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>24</v>
       </c>
@@ -6260,7 +6288,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>25</v>
       </c>
@@ -6268,7 +6296,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>26</v>
       </c>
@@ -6276,1578 +6304,1578 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="29" t="s">
+        <v>605</v>
+      </c>
+      <c r="B47" s="29"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="29" t="s">
-        <v>610</v>
-      </c>
-      <c r="B47" s="29"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B48" s="1" t="s">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B49" s="1" t="s">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B50" s="1" t="s">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B51" s="1" t="s">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B52" s="1" t="s">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B53" s="1" t="s">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B54" s="1" t="s">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B55" s="1" t="s">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B56" s="1" t="s">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B57" s="1" t="s">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B58" s="1" t="s">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B59" s="1" t="s">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B60" s="1" t="s">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B61" s="1" t="s">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B62" s="1" t="s">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B63" s="1" t="s">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B64" s="1" t="s">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B65" s="1" t="s">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B66" s="1" t="s">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B67" s="1" t="s">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B68" s="1" t="s">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B69" s="1" t="s">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B70" s="1" t="s">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B71" s="1" t="s">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B72" s="1" t="s">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B73" s="1" t="s">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B74" s="1" t="s">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B75" s="1" t="s">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B76" s="1" t="s">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B77" s="1" t="s">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B78" s="1" t="s">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B79" s="1" t="s">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B80" s="1" t="s">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B81" s="1" t="s">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B82" s="1" t="s">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B83" s="1" t="s">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B84" s="1" t="s">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B85" s="1" t="s">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B86" s="1" t="s">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B87" s="1" t="s">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B88" s="1" t="s">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B89" s="1" t="s">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B90" s="1" t="s">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
+      <c r="B93" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B91" s="1" t="s">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
+      <c r="B94" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B92" s="1" t="s">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
+      <c r="B95" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B93" s="1" t="s">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
+      <c r="B96" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B94" s="1" t="s">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
+      <c r="B97" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B95" s="1" t="s">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
+      <c r="B98" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B96" s="1" t="s">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
+      <c r="B99" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B97" s="1" t="s">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
+      <c r="B100" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B98" s="1" t="s">
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
+      <c r="B101" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B99" s="1" t="s">
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
+      <c r="B102" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B100" s="1" t="s">
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
+      <c r="B103" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B101" s="1" t="s">
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
+      <c r="B104" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B102" s="1" t="s">
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
+      <c r="B105" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B103" s="1" t="s">
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
+      <c r="B106" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B104" s="1" t="s">
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
+      <c r="B107" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B105" s="1" t="s">
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
+      <c r="B108" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B106" s="1" t="s">
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
+      <c r="B109" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B107" s="1" t="s">
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
+      <c r="B110" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B108" s="1" t="s">
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
+      <c r="B111" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B109" s="1" t="s">
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
+      <c r="B112" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B110" s="1" t="s">
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
+      <c r="B113" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B111" s="1" t="s">
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="2" t="s">
+      <c r="B114" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B112" s="1" t="s">
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="2" t="s">
+      <c r="B115" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B113" s="1" t="s">
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
+      <c r="B116" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B114" s="1" t="s">
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="2" t="s">
+      <c r="B117" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B115" s="1" t="s">
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="2" t="s">
+      <c r="B118" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B116" s="1" t="s">
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="2" t="s">
+      <c r="B119" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B117" s="1" t="s">
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
+      <c r="B120" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B118" s="1" t="s">
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
+      <c r="B121" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B119" s="1" t="s">
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
+      <c r="B122" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B120" s="1" t="s">
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
+      <c r="B123" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B121" s="1" t="s">
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="2" t="s">
+      <c r="B124" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B122" s="1" t="s">
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
+      <c r="B125" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B123" s="1" t="s">
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
+      <c r="B126" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B124" s="1" t="s">
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="2" t="s">
+      <c r="B127" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B125" s="1" t="s">
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="2" t="s">
+      <c r="B128" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B126" s="1" t="s">
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="2" t="s">
+      <c r="B129" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B127" s="1" t="s">
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="2" t="s">
+      <c r="B130" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B128" s="1" t="s">
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="2" t="s">
+      <c r="B131" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B129" s="1" t="s">
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="2" t="s">
+      <c r="B132" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B130" s="1" t="s">
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="2" t="s">
+      <c r="B133" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B131" s="1" t="s">
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="2" t="s">
+      <c r="B134" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B132" s="1" t="s">
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="2" t="s">
+      <c r="B135" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B133" s="1" t="s">
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="2" t="s">
+      <c r="B136" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B134" s="1" t="s">
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="2" t="s">
+      <c r="B137" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B135" s="1" t="s">
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="2" t="s">
+      <c r="B138" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B136" s="1" t="s">
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="2" t="s">
+      <c r="B139" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B137" s="1" t="s">
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="2" t="s">
+      <c r="B140" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B138" s="1" t="s">
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="2" t="s">
+      <c r="B141" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B139" s="1" t="s">
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="2" t="s">
+      <c r="B142" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B140" s="1" t="s">
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="2" t="s">
+      <c r="B143" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B141" s="1" t="s">
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="2" t="s">
+      <c r="B144" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B142" s="1" t="s">
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="2" t="s">
+      <c r="B145" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B143" s="1" t="s">
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="2" t="s">
+      <c r="B146" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B144" s="1" t="s">
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="2" t="s">
+      <c r="B147" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B145" s="1" t="s">
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="2" t="s">
+      <c r="B148" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B146" s="1" t="s">
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="2" t="s">
+      <c r="B149" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B147" s="1" t="s">
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="2" t="s">
+      <c r="B150" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B148" s="1" t="s">
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="2" t="s">
+      <c r="B151" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B149" s="1" t="s">
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="2" t="s">
+      <c r="B152" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B150" s="1" t="s">
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="2" t="s">
+      <c r="B153" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B151" s="1" t="s">
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="2" t="s">
+      <c r="B154" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B152" s="1" t="s">
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="2" t="s">
+      <c r="B155" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B153" s="1" t="s">
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="2" t="s">
+      <c r="B156" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B154" s="1" t="s">
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="2" t="s">
+      <c r="B157" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B155" s="1" t="s">
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="2" t="s">
+      <c r="B158" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B156" s="1" t="s">
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="2" t="s">
+      <c r="B159" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B157" s="1" t="s">
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="2" t="s">
+      <c r="B160" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B158" s="1" t="s">
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="2" t="s">
+      <c r="B161" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B159" s="1" t="s">
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="2" t="s">
+      <c r="B162" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B160" s="1" t="s">
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="2" t="s">
+      <c r="B163" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B161" s="1" t="s">
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="2" t="s">
+      <c r="B164" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B162" s="1" t="s">
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="2" t="s">
+      <c r="B165" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B163" s="1" t="s">
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="2" t="s">
+      <c r="B166" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B164" s="1" t="s">
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="2" t="s">
+      <c r="B167" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B165" s="1" t="s">
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="2" t="s">
+      <c r="B168" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B166" s="1" t="s">
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="2" t="s">
+      <c r="B169" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B167" s="1" t="s">
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="2" t="s">
+      <c r="B170" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B168" s="1" t="s">
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="2" t="s">
+      <c r="B171" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B169" s="1" t="s">
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="2" t="s">
+      <c r="B172" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B170" s="1" t="s">
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="2" t="s">
+      <c r="B173" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B171" s="1" t="s">
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="2" t="s">
+      <c r="B174" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B172" s="1" t="s">
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="2" t="s">
+      <c r="B175" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B173" s="1" t="s">
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="2" t="s">
+      <c r="B176" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B174" s="1" t="s">
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" s="2" t="s">
+      <c r="B177" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B175" s="1" t="s">
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" s="2" t="s">
+      <c r="B178" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B176" s="1" t="s">
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="2" t="s">
+      <c r="B179" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B177" s="1" t="s">
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" s="2" t="s">
+      <c r="B180" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B178" s="1" t="s">
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" s="2" t="s">
+      <c r="B181" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B179" s="1" t="s">
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" s="2" t="s">
+      <c r="B182" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="B180" s="1" t="s">
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" s="2" t="s">
+      <c r="B183" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B181" s="1" t="s">
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" s="2" t="s">
+      <c r="B184" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B182" s="1" t="s">
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" s="2" t="s">
+      <c r="B185" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B183" s="1" t="s">
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" s="2" t="s">
+      <c r="B186" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B184" s="1" t="s">
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" s="2" t="s">
+      <c r="B187" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B185" s="1" t="s">
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" s="2" t="s">
+      <c r="B188" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B186" s="1" t="s">
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" s="2" t="s">
+      <c r="B189" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B187" s="1" t="s">
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" s="2" t="s">
+      <c r="B190" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B188" s="1" t="s">
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="2" t="s">
+      <c r="B191" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B189" s="1" t="s">
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="2" t="s">
+      <c r="B192" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="B190" s="1" t="s">
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" s="2" t="s">
+      <c r="B193" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B191" s="1" t="s">
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" s="2" t="s">
+      <c r="B194" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B192" s="1" t="s">
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="2" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" s="2" t="s">
+      <c r="B195" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B193" s="1" t="s">
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="2" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" s="2" t="s">
+      <c r="B196" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B194" s="1" t="s">
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" s="2" t="s">
+      <c r="B197" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="B195" s="1" t="s">
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="2" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" s="2" t="s">
+      <c r="B198" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B196" s="1" t="s">
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="2" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" s="2" t="s">
+      <c r="B199" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B197" s="1" t="s">
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="2" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" s="2" t="s">
+      <c r="B200" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="B198" s="1" t="s">
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="2" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" s="2" t="s">
+      <c r="B201" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="B199" s="1" t="s">
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="2" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" s="2" t="s">
+      <c r="B202" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B200" s="1" t="s">
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="2" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" s="2" t="s">
+      <c r="B203" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B201" s="1" t="s">
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" s="2" t="s">
+      <c r="B204" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="B202" s="1" t="s">
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" s="2" t="s">
+      <c r="B205" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B203" s="1" t="s">
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="2" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" s="2" t="s">
+      <c r="B206" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B204" s="1" t="s">
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" s="2" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" s="2" t="s">
+      <c r="B207" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B205" s="1" t="s">
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" s="2" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" s="2" t="s">
+      <c r="B208" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B206" s="1" t="s">
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="2" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" s="2" t="s">
+      <c r="B209" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="B207" s="1" t="s">
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="2" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" s="2" t="s">
+      <c r="B210" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B208" s="1" t="s">
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="2" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" s="2" t="s">
+      <c r="B211" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B209" s="1" t="s">
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="2" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" s="2" t="s">
+      <c r="B212" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="B210" s="1" t="s">
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211" s="2" t="s">
+      <c r="B213" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="B211" s="1" t="s">
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="2" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" s="2" t="s">
+      <c r="B214" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="B212" s="1" t="s">
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="2" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213" s="2" t="s">
+      <c r="B215" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="B213" s="1" t="s">
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" s="2" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" s="2" t="s">
+      <c r="B216" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B214" s="1" t="s">
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" s="2" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215" s="2" t="s">
+      <c r="B217" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B215" s="1" t="s">
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" s="2" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" s="2" t="s">
+      <c r="B218" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="B216" s="1" t="s">
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" s="2" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217" s="2" t="s">
+      <c r="B219" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B217" s="1" t="s">
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" s="2" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" s="2" t="s">
+      <c r="B220" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="B218" s="1" t="s">
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" s="2" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219" s="2" t="s">
+      <c r="B221" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="B219" s="1" t="s">
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" s="2" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" s="2" t="s">
+      <c r="B222" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="B220" s="1" t="s">
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" s="2" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" s="2" t="s">
+      <c r="B223" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="B221" s="1" t="s">
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" s="2" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" s="2" t="s">
+      <c r="B224" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="B222" s="1" t="s">
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" s="2" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223" s="2" t="s">
+      <c r="B225" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B223" s="1" t="s">
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" s="2" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" s="2" t="s">
+      <c r="B226" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B224" s="1" t="s">
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" s="2" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" s="2" t="s">
+      <c r="B227" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="B225" s="1" t="s">
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" s="2" t="s">
+      <c r="B228" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="B226" s="1" t="s">
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" s="2" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" s="2" t="s">
+      <c r="B229" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="B227" s="1" t="s">
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" s="2" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" s="2" t="s">
+      <c r="B230" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="B228" s="1" t="s">
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" s="2" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" s="2" t="s">
+      <c r="B231" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="B229" s="1" t="s">
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" s="2" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" s="2" t="s">
+      <c r="B232" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="B230" s="1" t="s">
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" s="2" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" s="2" t="s">
+      <c r="B233" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="B231" s="1" t="s">
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" s="2" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" s="2" t="s">
+      <c r="B234" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="B232" s="1" t="s">
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" s="2" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" s="2" t="s">
+      <c r="B235" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="B233" s="1" t="s">
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" s="2" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" s="2" t="s">
+      <c r="B236" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="B234" s="1" t="s">
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" s="2" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" s="2" t="s">
+      <c r="B237" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="B235" s="1" t="s">
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" s="2" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" s="2" t="s">
+      <c r="B238" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B236" s="1" t="s">
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" s="2" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" s="2" t="s">
+      <c r="B239" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="B237" s="1" t="s">
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" s="2" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" s="2" t="s">
+      <c r="B240" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="B238" s="1" t="s">
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" s="2" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" s="2" t="s">
+      <c r="B241" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="B239" s="1" t="s">
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B242" s="1" t="s">
         <v>604</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -7861,36 +7889,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
     <col min="2" max="2" width="39.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
     </row>
   </sheetData>
